--- a/Documents/ColorCodes.xlsx
+++ b/Documents/ColorCodes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Random</t>
   </si>
@@ -94,6 +94,39 @@
   </si>
   <si>
     <t>0008FF</t>
+  </si>
+  <si>
+    <t>Gans</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>macht einen Satz nach vorn</t>
+  </si>
+  <si>
+    <t>Rollt sich zusammen</t>
+  </si>
+  <si>
+    <t>läuft schlangenlinien</t>
+  </si>
+  <si>
+    <t>Wechselt die lane</t>
+  </si>
+  <si>
+    <t>Ist manchmal giftig</t>
+  </si>
+  <si>
+    <t>wirft Stöcke</t>
+  </si>
+  <si>
+    <t>legt eier</t>
+  </si>
+  <si>
+    <t>Nur bei Währung</t>
+  </si>
+  <si>
+    <t>Löcher</t>
   </si>
 </sst>
 </file>
@@ -545,15 +578,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:D19"/>
+  <dimension ref="C2:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="33.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -561,115 +597,149 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D23" s="9" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/ColorCodes.xlsx
+++ b/Documents/ColorCodes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Random</t>
   </si>
@@ -127,6 +127,36 @@
   </si>
   <si>
     <t>Löcher</t>
+  </si>
+  <si>
+    <t>8bc34a</t>
+  </si>
+  <si>
+    <t>f57f17</t>
+  </si>
+  <si>
+    <t>9c27b0</t>
+  </si>
+  <si>
+    <t>ffeb3b</t>
+  </si>
+  <si>
+    <t>f4423</t>
+  </si>
+  <si>
+    <t>4caf4f</t>
+  </si>
+  <si>
+    <t>1a237e</t>
+  </si>
+  <si>
+    <t>ffcdd2</t>
+  </si>
+  <si>
+    <t>795548a</t>
+  </si>
+  <si>
+    <t>4e32e</t>
   </si>
 </sst>
 </file>
@@ -149,7 +179,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,6 +261,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0080FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -263,6 +317,21 @@
     <xf numFmtId="49" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -271,16 +340,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF80FF00"/>
+      <color rgb="FF00FF00"/>
+      <color rgb="FF800080"/>
       <color rgb="FF0080FF"/>
       <color rgb="FFFF8000"/>
       <color rgb="FF8000FF"/>
-      <color rgb="FF800080"/>
-      <color rgb="FF80FF00"/>
       <color rgb="FF80FF80"/>
       <color rgb="FF7DFF00"/>
       <color rgb="FF00FF7D"/>
       <color rgb="FF7DFF7D"/>
-      <color rgb="FF00FF00"/>
     </mruColors>
   </colors>
   <extLst>
@@ -581,7 +650,7 @@
   <dimension ref="C2:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,6 +695,9 @@
       <c r="D7" s="11" t="s">
         <v>22</v>
       </c>
+      <c r="E7" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="F7" t="s">
         <v>28</v>
       </c>
@@ -637,6 +709,9 @@
       <c r="D8" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="E8" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="F8" t="s">
         <v>29</v>
       </c>
@@ -648,6 +723,9 @@
       <c r="D9" s="12" t="s">
         <v>23</v>
       </c>
+      <c r="E9" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="F9" t="s">
         <v>30</v>
       </c>
@@ -659,6 +737,9 @@
       <c r="D10" s="13" t="s">
         <v>24</v>
       </c>
+      <c r="E10" s="18" t="s">
+        <v>41</v>
+      </c>
       <c r="F10" t="s">
         <v>31</v>
       </c>
@@ -670,6 +751,9 @@
       <c r="D11" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="E11" s="19" t="s">
+        <v>42</v>
+      </c>
       <c r="F11" t="s">
         <v>32</v>
       </c>
@@ -681,6 +765,9 @@
       <c r="D12" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="E12" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="F12" t="s">
         <v>33</v>
       </c>
@@ -692,6 +779,9 @@
       <c r="D13" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="E13" s="21" t="s">
+        <v>44</v>
+      </c>
       <c r="F13" t="s">
         <v>34</v>
       </c>
@@ -702,44 +792,56 @@
     <row r="14" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="24">
+        <v>757575</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>36</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>18</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/ColorCodes.xlsx
+++ b/Documents/ColorCodes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Random</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>4e32e</t>
+  </si>
+  <si>
+    <t>03a8f4</t>
   </si>
 </sst>
 </file>
@@ -301,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -332,6 +335,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -340,10 +344,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0080FF"/>
       <color rgb="FF80FF00"/>
       <color rgb="FF00FF00"/>
       <color rgb="FF800080"/>
-      <color rgb="FF0080FF"/>
       <color rgb="FFFF8000"/>
       <color rgb="FF8000FF"/>
       <color rgb="FF80FF80"/>
@@ -650,7 +654,7 @@
   <dimension ref="C2:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,6 +687,9 @@
       </c>
       <c r="D6" s="14" t="s">
         <v>25</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
